--- a/Ch3_Phys_tables.xlsx
+++ b/Ch3_Phys_tables.xlsx
@@ -6,25 +6,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1 - T0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table 2 - protein" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table 3 - lipid" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table 4 - carbohydrate" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Table 5 - density" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table 6 - chlorophyll" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Table 7 - total host" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Table 8 - total symbiont" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Table 1 - protein" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 2 - lipid" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 3 - carbohydrate" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table 4 - density" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table 5 - chlorophyll" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Table 6 - total host" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">species</t>
   </si>
   <si>
-    <t xml:space="preserve">parameter</t>
+    <t xml:space="preserve">treatment</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -40,39 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">SSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">den</t>
-  </si>
-  <si>
-    <t xml:space="preserve">host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">symb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment</t>
   </si>
   <si>
     <t xml:space="preserve">288_28</t>
@@ -97,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">701_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAST</t>
   </si>
 </sst>
 </file>
@@ -431,7 +405,7 @@
     <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,16 +437,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.07</v>
+        <v>0.49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +457,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07</v>
+        <v>0.44</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.14</v>
+        <v>0.35</v>
       </c>
       <c r="F3" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +477,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +497,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>44.85</v>
+        <v>0.39</v>
       </c>
       <c r="E5" t="n">
-        <v>20.14</v>
+        <v>0.31</v>
       </c>
       <c r="F5" t="n">
-        <v>70.66</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +517,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.04</v>
+        <v>0.46</v>
       </c>
       <c r="E6" t="n">
-        <v>1.82</v>
+        <v>0.38</v>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +537,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67</v>
+        <v>0.52</v>
       </c>
       <c r="E7" t="n">
-        <v>1.45</v>
+        <v>0.44</v>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -583,436 +557,416 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>22.27</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.92</v>
+        <v>0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>46.63</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="F9" t="n">
-        <v>1.1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08</v>
+        <v>0.52</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.16</v>
+        <v>0.42</v>
       </c>
       <c r="F10" t="n">
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.35</v>
+        <v>0.56</v>
       </c>
       <c r="E11" t="n">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="F11" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>51.72</v>
+        <v>0.31</v>
       </c>
       <c r="E12" t="n">
-        <v>23.62</v>
+        <v>0.23</v>
       </c>
       <c r="F12" t="n">
-        <v>80.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>1.87</v>
+        <v>0.42</v>
       </c>
       <c r="E13" t="n">
-        <v>1.63</v>
+        <v>0.35</v>
       </c>
       <c r="F13" t="n">
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>1.28</v>
+        <v>0.17</v>
       </c>
       <c r="E14" t="n">
-        <v>1.04</v>
+        <v>0.08</v>
       </c>
       <c r="F14" t="n">
-        <v>1.53</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>33.13</v>
+        <v>0.18</v>
       </c>
       <c r="E15" t="n">
-        <v>5.82</v>
+        <v>0.06</v>
       </c>
       <c r="F15" t="n">
-        <v>62.74</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.4</v>
+        <v>0.42</v>
       </c>
       <c r="E16" t="n">
-        <v>1.21</v>
+        <v>0.31</v>
       </c>
       <c r="F16" t="n">
-        <v>1.59</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.11</v>
+        <v>0.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="E18" t="n">
         <v>0.11</v>
       </c>
       <c r="F18" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>42.28</v>
+        <v>0.36</v>
       </c>
       <c r="E19" t="n">
-        <v>21.01</v>
+        <v>0.24</v>
       </c>
       <c r="F19" t="n">
-        <v>63.8</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>14</v>
-      </c>
       <c r="D20" t="n">
-        <v>1.63</v>
+        <v>0.24</v>
       </c>
       <c r="E20" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.82</v>
+        <v>0.19</v>
       </c>
       <c r="E21" t="n">
-        <v>1.61</v>
+        <v>0.09</v>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>28.27</v>
+        <v>0.11</v>
       </c>
       <c r="E22" t="n">
-        <v>7.08</v>
+        <v>0.01</v>
       </c>
       <c r="F22" t="n">
-        <v>49.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.85</v>
+        <v>0.06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.64</v>
+        <v>-0.05</v>
       </c>
       <c r="F23" t="n">
-        <v>1.07</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.14</v>
+        <v>0.07</v>
       </c>
       <c r="F24" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="E25" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
         <v>10</v>
       </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
       <c r="D26" t="n">
-        <v>72.08</v>
+        <v>0.16</v>
       </c>
       <c r="E26" t="n">
-        <v>48.05</v>
+        <v>0.07</v>
       </c>
       <c r="F26" t="n">
-        <v>95.9</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>1.29</v>
+        <v>0.11</v>
       </c>
       <c r="E27" t="n">
-        <v>1.08</v>
+        <v>0.02</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="E28" t="n">
-        <v>1.03</v>
+        <v>0.21</v>
       </c>
       <c r="F28" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="E29" t="n">
-        <v>77.13</v>
-      </c>
-      <c r="F29" t="n">
-        <v>124.94</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1061,19 +1015,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -1081,19 +1035,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="F3" t="n">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -1101,19 +1055,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="F4" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -1121,19 +1075,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -1141,19 +1095,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -1161,19 +1115,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="E7" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -1181,19 +1135,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.54</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9">
@@ -1201,176 +1155,176 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="E9" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="F9" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.56</v>
+        <v>0.07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.49</v>
+        <v>-0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="E11" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="F12" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.18</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.31</v>
+        <v>-0.01</v>
       </c>
       <c r="F15" t="n">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="E16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.38</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
       <c r="D17" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F17" t="n">
         <v>0.3</v>
@@ -1378,119 +1332,119 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.15</v>
+        <v>-0.02</v>
       </c>
       <c r="F18" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.11</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.02</v>
-      </c>
       <c r="F20" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="F22" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F23" t="n">
         <v>0.3</v>
@@ -1498,162 +1452,102 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F24" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07</v>
+        <v>0.16</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.07</v>
+        <v>0.06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1702,19 +1596,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>1.15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0.49</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="3">
@@ -1722,19 +1616,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28</v>
+        <v>0.62</v>
       </c>
       <c r="F3" t="n">
-        <v>0.47</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -1742,19 +1636,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>1.11</v>
       </c>
       <c r="E4" t="n">
-        <v>0.28</v>
+        <v>0.93</v>
       </c>
       <c r="F4" t="n">
-        <v>0.46</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -1762,19 +1656,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
@@ -1782,19 +1676,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="F6" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -1802,19 +1696,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>1.08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>0.91</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="8">
@@ -1822,19 +1716,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.33</v>
+        <v>1.27</v>
       </c>
       <c r="E8" t="n">
-        <v>0.24</v>
+        <v>1.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9">
@@ -1842,459 +1736,399 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="E9" t="n">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.28</v>
+        <v>1.07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.19</v>
+        <v>0.82</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.13</v>
+        <v>0.77</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.23</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="F12" t="n">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03</v>
+        <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01</v>
+        <v>0.15</v>
       </c>
       <c r="F14" t="n">
-        <v>0.24</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F15" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
       <c r="D17" t="n">
-        <v>0.07</v>
+        <v>0.56</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03</v>
+        <v>0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>0.18</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F18" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.26</v>
+        <v>0.84</v>
       </c>
       <c r="E19" t="n">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="F19" t="n">
-        <v>0.37</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.13</v>
+        <v>0.82</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="F20" t="n">
-        <v>0.23</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07</v>
+        <v>0.42</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22</v>
+        <v>0.58</v>
       </c>
       <c r="E22" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="F22" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.17</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.07</v>
-      </c>
       <c r="F23" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.11</v>
+        <v>0.73</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F24" t="n">
-        <v>0.21</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16</v>
+        <v>0.89</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06</v>
+        <v>0.71</v>
       </c>
       <c r="F25" t="n">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.26</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04</v>
+        <v>0.23</v>
       </c>
       <c r="F27" t="n">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06</v>
+        <v>1.4</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
       <c r="F28" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.26</v>
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2148,7 @@
     <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2323,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2343,19 +2177,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15</v>
+        <v>3.34</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1.33</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3">
@@ -2363,19 +2197,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>2.46</v>
       </c>
       <c r="E3" t="n">
-        <v>0.63</v>
+        <v>1.47</v>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="4">
@@ -2383,19 +2217,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>2.07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.94</v>
+        <v>1.16</v>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5">
@@ -2403,19 +2237,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>1.19</v>
       </c>
       <c r="E5" t="n">
-        <v>0.61</v>
+        <v>0.28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.95</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -2423,19 +2257,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>2.59</v>
       </c>
       <c r="E6" t="n">
-        <v>0.58</v>
+        <v>1.65</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="7">
@@ -2443,19 +2277,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08</v>
+        <v>3.47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>2.55</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2297,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.27</v>
+        <v>2.96</v>
       </c>
       <c r="E8" t="n">
-        <v>1.11</v>
+        <v>2.07</v>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9">
@@ -2483,459 +2317,399 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.94</v>
+        <v>2.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="F9" t="n">
-        <v>1.11</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>0.77</v>
+        <v>2.07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="F10" t="n">
-        <v>0.92</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.49</v>
+        <v>2.21</v>
       </c>
       <c r="E11" t="n">
-        <v>0.31</v>
+        <v>1.34</v>
       </c>
       <c r="F11" t="n">
-        <v>0.68</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="E12" t="n">
-        <v>0.46</v>
+        <v>-0.59</v>
       </c>
       <c r="F12" t="n">
-        <v>0.78</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>0.35</v>
+        <v>1.55</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="F13" t="n">
-        <v>0.54</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>-0.23</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17</v>
+        <v>-1.27</v>
       </c>
       <c r="F14" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="E15" t="n">
-        <v>0.44</v>
+        <v>-0.84</v>
       </c>
       <c r="F15" t="n">
-        <v>0.91</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.56</v>
+        <v>2.23</v>
       </c>
       <c r="E16" t="n">
-        <v>0.39</v>
+        <v>0.98</v>
       </c>
       <c r="F16" t="n">
-        <v>0.74</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
       <c r="D17" t="n">
-        <v>0.29</v>
+        <v>1.72</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09</v>
+        <v>0.83</v>
       </c>
       <c r="F17" t="n">
-        <v>0.49</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.82</v>
+        <v>-0.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.63</v>
+        <v>-1.11</v>
       </c>
       <c r="F18" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.65</v>
+        <v>1.8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.87</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.58</v>
+        <v>7.33</v>
       </c>
       <c r="E20" t="n">
-        <v>0.39</v>
+        <v>6.31</v>
       </c>
       <c r="F20" t="n">
-        <v>0.78</v>
+        <v>8.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.41</v>
+        <v>6.44</v>
       </c>
       <c r="E21" t="n">
-        <v>0.17</v>
+        <v>5.29</v>
       </c>
       <c r="F21" t="n">
-        <v>0.64</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.72</v>
+        <v>5.83</v>
       </c>
       <c r="E22" t="n">
-        <v>0.52</v>
+        <v>4.86</v>
       </c>
       <c r="F22" t="n">
-        <v>0.94</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.89</v>
+        <v>4.94</v>
       </c>
       <c r="E23" t="n">
-        <v>0.71</v>
+        <v>3.67</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>5.58</v>
       </c>
       <c r="E24" t="n">
-        <v>0.41</v>
+        <v>4.45</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.43</v>
+        <v>6.47</v>
       </c>
       <c r="E25" t="n">
-        <v>0.23</v>
+        <v>5.44</v>
       </c>
       <c r="F25" t="n">
-        <v>0.63</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29</v>
+        <v>5.02</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06</v>
+        <v>3.97</v>
       </c>
       <c r="F26" t="n">
-        <v>0.51</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22</v>
+        <v>4.13</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.11</v>
+        <v>3.03</v>
       </c>
       <c r="F27" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18</v>
+        <v>1.66</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.12</v>
+        <v>0.55</v>
       </c>
       <c r="F28" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.54</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +2729,7 @@
     <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2964,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2984,19 +2758,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33</v>
+        <v>120.79</v>
       </c>
       <c r="E2" t="n">
-        <v>2.39</v>
+        <v>93.95</v>
       </c>
       <c r="F2" t="n">
-        <v>4.27</v>
+        <v>147.27</v>
       </c>
     </row>
     <row r="3">
@@ -3004,19 +2778,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.44</v>
+        <v>95.78</v>
       </c>
       <c r="E3" t="n">
-        <v>1.45</v>
+        <v>68.08</v>
       </c>
       <c r="F3" t="n">
-        <v>3.43</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="4">
@@ -3024,19 +2798,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>53.23</v>
       </c>
       <c r="E4" t="n">
-        <v>1.21</v>
+        <v>27.81</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>78.85</v>
       </c>
     </row>
     <row r="5">
@@ -3044,19 +2818,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.2</v>
+        <v>28.22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>2.2</v>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="6">
@@ -3064,19 +2838,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59</v>
+        <v>104.93</v>
       </c>
       <c r="E6" t="n">
-        <v>1.64</v>
+        <v>79.27</v>
       </c>
       <c r="F6" t="n">
-        <v>3.49</v>
+        <v>130.43</v>
       </c>
     </row>
     <row r="7">
@@ -3084,19 +2858,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.48</v>
+        <v>129.94</v>
       </c>
       <c r="E7" t="n">
-        <v>2.54</v>
+        <v>105.49</v>
       </c>
       <c r="F7" t="n">
-        <v>4.39</v>
+        <v>155.19</v>
       </c>
     </row>
     <row r="8">
@@ -3104,19 +2878,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>2.96</v>
+        <v>94.59</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1</v>
+        <v>70.29</v>
       </c>
       <c r="F8" t="n">
-        <v>3.88</v>
+        <v>118.96</v>
       </c>
     </row>
     <row r="9">
@@ -3124,459 +2898,399 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>2.08</v>
+        <v>69.58</v>
       </c>
       <c r="E9" t="n">
-        <v>1.21</v>
+        <v>43.99</v>
       </c>
       <c r="F9" t="n">
-        <v>2.97</v>
+        <v>93.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2.23</v>
+        <v>46.17</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4</v>
+        <v>11.01</v>
       </c>
       <c r="F10" t="n">
-        <v>3.08</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.43</v>
+        <v>193.75</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.58</v>
+        <v>170.37</v>
       </c>
       <c r="F11" t="n">
-        <v>1.39</v>
+        <v>217.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1.57</v>
+        <v>108.83</v>
       </c>
       <c r="E12" t="n">
-        <v>0.72</v>
+        <v>81.57</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>136.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.23</v>
+        <v>81.43</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.28</v>
+        <v>57.99</v>
       </c>
       <c r="F13" t="n">
-        <v>0.82</v>
+        <v>105.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42</v>
+        <v>-3.49</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9</v>
+        <v>-32.26</v>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2.22</v>
+        <v>47.02</v>
       </c>
       <c r="E15" t="n">
-        <v>0.87</v>
+        <v>9.81</v>
       </c>
       <c r="F15" t="n">
-        <v>3.51</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.72</v>
+        <v>131.93</v>
       </c>
       <c r="E16" t="n">
-        <v>0.83</v>
+        <v>94.83</v>
       </c>
       <c r="F16" t="n">
-        <v>2.63</v>
+        <v>168.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
       <c r="D17" t="n">
-        <v>-0.08</v>
+        <v>90.82</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.17</v>
+        <v>65.27</v>
       </c>
       <c r="F17" t="n">
-        <v>1.02</v>
+        <v>116.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>7.3</v>
+        <v>5.91</v>
       </c>
       <c r="E18" t="n">
-        <v>6.27</v>
+        <v>-25.4</v>
       </c>
       <c r="F18" t="n">
-        <v>8.35</v>
+        <v>36.83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>6.39</v>
+        <v>49.04</v>
       </c>
       <c r="E19" t="n">
-        <v>5.26</v>
+        <v>9.22</v>
       </c>
       <c r="F19" t="n">
-        <v>7.56</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>5.88</v>
+        <v>104.21</v>
       </c>
       <c r="E20" t="n">
-        <v>4.84</v>
+        <v>77.16</v>
       </c>
       <c r="F20" t="n">
-        <v>6.87</v>
+        <v>132.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4.97</v>
+        <v>142.4</v>
       </c>
       <c r="E21" t="n">
-        <v>3.71</v>
+        <v>110.92</v>
       </c>
       <c r="F21" t="n">
-        <v>6.21</v>
+        <v>175.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>5.56</v>
+        <v>17.71</v>
       </c>
       <c r="E22" t="n">
-        <v>4.38</v>
+        <v>-12.59</v>
       </c>
       <c r="F22" t="n">
-        <v>6.71</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>6.46</v>
+        <v>55.9</v>
       </c>
       <c r="E23" t="n">
-        <v>5.46</v>
+        <v>22.29</v>
       </c>
       <c r="F23" t="n">
-        <v>7.45</v>
+        <v>91.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>5.06</v>
+        <v>83.73</v>
       </c>
       <c r="E24" t="n">
-        <v>4.02</v>
+        <v>53.52</v>
       </c>
       <c r="F24" t="n">
-        <v>6.05</v>
+        <v>113.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>4.15</v>
+        <v>45.54</v>
       </c>
       <c r="E25" t="n">
-        <v>3.11</v>
+        <v>19.14</v>
       </c>
       <c r="F25" t="n">
-        <v>5.19</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.55</v>
+        <v>44.91</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.69</v>
+        <v>16.96</v>
       </c>
       <c r="F26" t="n">
-        <v>1.66</v>
+        <v>74.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.27</v>
+        <v>83.1</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.39</v>
+        <v>55.13</v>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.66</v>
+        <v>43.4</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.87</v>
+        <v>14.9</v>
       </c>
       <c r="F28" t="n">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.73</v>
+        <v>73.72</v>
       </c>
     </row>
   </sheetData>
@@ -3596,647 +3310,6 @@
     <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>94.79</v>
-      </c>
-      <c r="F2" t="n">
-        <v>146.99</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>68.17</v>
-      </c>
-      <c r="F3" t="n">
-        <v>122.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>105.06</v>
-      </c>
-      <c r="E6" t="n">
-        <v>80.32</v>
-      </c>
-      <c r="F6" t="n">
-        <v>130.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>130.01</v>
-      </c>
-      <c r="E7" t="n">
-        <v>104.87</v>
-      </c>
-      <c r="F7" t="n">
-        <v>155.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="E8" t="n">
-        <v>68.73</v>
-      </c>
-      <c r="F8" t="n">
-        <v>118.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>69.6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="F9" t="n">
-        <v>95.17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" t="n">
-        <v>193.51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>169.96</v>
-      </c>
-      <c r="F10" t="n">
-        <v>217.27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>109.96</v>
-      </c>
-      <c r="E11" t="n">
-        <v>83.65</v>
-      </c>
-      <c r="F11" t="n">
-        <v>136.74</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-      <c r="D12" t="n">
-        <v>81.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="F12" t="n">
-        <v>104.12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-2.54</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-30.87</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23.97</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>47.86</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="F14" t="n">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>131.42</v>
-      </c>
-      <c r="E15" t="n">
-        <v>95.82</v>
-      </c>
-      <c r="F15" t="n">
-        <v>166.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90.14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>65.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>115.42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-24.04</v>
-      </c>
-      <c r="F17" t="n">
-        <v>35.78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>104.48</v>
-      </c>
-      <c r="E18" t="n">
-        <v>77.16</v>
-      </c>
-      <c r="F18" t="n">
-        <v>132.06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>142.68</v>
-      </c>
-      <c r="E19" t="n">
-        <v>108.91</v>
-      </c>
-      <c r="F19" t="n">
-        <v>173.14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-10.99</v>
-      </c>
-      <c r="F20" t="n">
-        <v>44.15</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.54</v>
-      </c>
-      <c r="E21" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="F21" t="n">
-        <v>88.39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>84</v>
-      </c>
-      <c r="E22" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="F22" t="n">
-        <v>112.29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="F23" t="n">
-        <v>73.38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" t="n">
-        <v>45.27</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="F24" t="n">
-        <v>73.53</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>83.47</v>
-      </c>
-      <c r="E25" t="n">
-        <v>53.13</v>
-      </c>
-      <c r="F25" t="n">
-        <v>112.94</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>40.19</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.14</v>
-      </c>
-      <c r="F26" t="n">
-        <v>71.78</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>85.87</v>
-      </c>
-      <c r="E27" t="n">
-        <v>41.22</v>
-      </c>
-      <c r="F27" t="n">
-        <v>131.39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-20.33</v>
-      </c>
-      <c r="F28" t="n">
-        <v>68.34</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-5.02</v>
-      </c>
-      <c r="F29" t="n">
-        <v>68.09</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-39.63</v>
-      </c>
-      <c r="F30" t="n">
-        <v>64.36</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-9.86</v>
-      </c>
-      <c r="F31" t="n">
-        <v>124.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
   </cols>
@@ -4246,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4266,19 +3339,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="E2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="F2" t="n">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -4286,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
@@ -4295,10 +3368,10 @@
         <v>1.76</v>
       </c>
       <c r="E3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4">
@@ -4306,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
@@ -4315,10 +3388,10 @@
         <v>1.88</v>
       </c>
       <c r="E4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="F4" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -4326,16 +3399,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="E5" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F5" t="n">
         <v>1.69</v>
@@ -4346,19 +3419,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="E6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
@@ -4366,19 +3439,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="E7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -4386,19 +3459,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="E8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F8" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="9">
@@ -4406,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>12</v>
@@ -4418,1088 +3491,387 @@
         <v>1.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="E10" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.88</v>
+        <v>1.54</v>
       </c>
       <c r="E11" t="n">
-        <v>0.64</v>
+        <v>1.34</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
       <c r="E12" t="n">
-        <v>1.06</v>
+        <v>0.63</v>
       </c>
       <c r="F12" t="n">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>0.59</v>
+        <v>1.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.36</v>
+        <v>1.05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
       <c r="E14" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="F14" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.46</v>
+        <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="E16" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
       <c r="D17" t="n">
-        <v>0.64</v>
+        <v>1.3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.38</v>
+        <v>1.09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>1.22</v>
+        <v>0.63</v>
       </c>
       <c r="E18" t="n">
-        <v>1.01</v>
+        <v>0.37</v>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="E19" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="E20" t="n">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
       <c r="F21" t="n">
-        <v>1.03</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E22" t="n">
         <v>0.71</v>
       </c>
       <c r="F22" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="E23" t="n">
-        <v>0.91</v>
+        <v>0.48</v>
       </c>
       <c r="F23" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>0.97</v>
       </c>
       <c r="E24" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F24" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.56</v>
+        <v>0.91</v>
       </c>
       <c r="F25" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.51</v>
+        <v>0.97</v>
       </c>
       <c r="E26" t="n">
-        <v>0.28</v>
+        <v>0.75</v>
       </c>
       <c r="F26" t="n">
-        <v>0.74</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05</v>
+        <v>0.55</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23</v>
+        <v>1.83</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.02</v>
+        <v>1.51</v>
       </c>
       <c r="F28" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="3.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.71</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-81.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>154.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-78.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>194.36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-91.49</v>
-      </c>
-      <c r="F4" t="n">
-        <v>152.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.83</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-62.38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>174.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.95</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-65.98</v>
-      </c>
-      <c r="F6" t="n">
-        <v>173.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-94.96</v>
-      </c>
-      <c r="F7" t="n">
-        <v>144.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>46.97</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-64.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>158.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74.21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-51.05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>196.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" t="n">
-        <v>233.33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>127.23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>338.29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>644.27</v>
-      </c>
-      <c r="E11" t="n">
-        <v>457.45</v>
-      </c>
-      <c r="F11" t="n">
-        <v>826.87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-67.59</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-174.19</v>
-      </c>
-      <c r="F12" t="n">
-        <v>37.94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>327.08</v>
-      </c>
-      <c r="E13" t="n">
-        <v>175.72</v>
-      </c>
-      <c r="F13" t="n">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>816.89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>627.86</v>
-      </c>
-      <c r="F14" t="n">
-        <v>999.49</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>401.62</v>
-      </c>
-      <c r="E15" t="n">
-        <v>211.35</v>
-      </c>
-      <c r="F15" t="n">
-        <v>580.29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>123.16</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="F16" t="n">
-        <v>234.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>508.91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>332.06</v>
-      </c>
-      <c r="F17" t="n">
-        <v>698.54</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-102.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>140.4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.66</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-143.65</v>
-      </c>
-      <c r="F19" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-113</v>
-      </c>
-      <c r="F20" t="n">
-        <v>123.06</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-193.35</v>
-      </c>
-      <c r="F21" t="n">
-        <v>207.36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-147.96</v>
-      </c>
-      <c r="F22" t="n">
-        <v>184.78</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-108.39</v>
-      </c>
-      <c r="F23" t="n">
-        <v>132.95</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>10</v>
-      </c>
-      <c r="D24" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-109.88</v>
-      </c>
-      <c r="F24" t="n">
-        <v>145.69</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8</v>
-      </c>
-      <c r="D25" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-110.53</v>
-      </c>
-      <c r="F25" t="n">
-        <v>171.9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" t="n">
-        <v>153.51</v>
-      </c>
-      <c r="E26" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="F26" t="n">
-        <v>276.3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>355.56</v>
-      </c>
-      <c r="E27" t="n">
-        <v>152.58</v>
-      </c>
-      <c r="F27" t="n">
-        <v>557.56</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>143.54</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-19.46</v>
-      </c>
-      <c r="F28" t="n">
-        <v>306.57</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>221.76</v>
-      </c>
-      <c r="E29" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>370.92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-194.43</v>
-      </c>
-      <c r="F30" t="n">
-        <v>208.97</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>175.45</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-238.16</v>
-      </c>
-      <c r="F31" t="n">
-        <v>595.18</v>
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>

--- a/Ch3_Phys_tables.xlsx
+++ b/Ch3_Phys_tables.xlsx
@@ -12,12 +12,14 @@
     <sheet name="Table 4 - density" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Table 5 - chlorophyll" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Table 6 - total host" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Table 7 - SSID dist" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table 8 - PAST dist" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">species</t>
   </si>
@@ -71,6 +73,381 @@
   </si>
   <si>
     <t xml:space="preserve">PAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-288_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-311_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:F-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:F-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:F-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-447_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:F-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:F-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-405_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:F-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-673_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:F-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-701_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:F-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-3285_28:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_28:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-3309_31:F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_31:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-288_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447_28:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-311_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405_31:N-447_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-447_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-447_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-447_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-447_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673_28:N-405_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-405_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-405_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-405_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701_31:N-673_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-673_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-673_28:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3285_28:N-701_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-701_31:N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3309_31:N-3285_28:N</t>
   </si>
 </sst>
 </file>
@@ -3878,4 +4255,4040 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="19.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.288050892308203</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.28474953099034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.70864774637393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.999999999890032</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.058263796151</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.50505798870574</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.388530396403727</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.202024033198828</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.00313245203632</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.56308694676642</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.56935185083907</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.990096343242054</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.226732279096375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.06203411202562</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.51549867021837</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.999999999829194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.29256657553172</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.06522330468229</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.65035645574573</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.999999995541265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.17751331987471</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.269280872680026</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.62430751242944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.136840989723732</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.74792838066384</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.698865811890893</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.19472257321857</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.460233419633799</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.745005667947435</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.82121373085531</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.31122506675018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.999606641736682</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.10120548258989</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.66742488139263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.46501391621285</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-2.058263796151</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.62448319495375</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.50795560265174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.26859676456661</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.859577994842385</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-3.21736787505639</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.49821188537162</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.995073181845542</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.82829888124442</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-3.39451828004716</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.73792051755832</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.998668592203708</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.506409288740347</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-3.07262868754309</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.0598101100624</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.999997096267877</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.158474274409864</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.28831991814487</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.6052684669646</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.492860742672684</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.95393344988205</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.93965493522742</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.999996175899383</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-1.7702129038428</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-4.76691154252493</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.22648573483933</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.762739750732069</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.29118334434452</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.8037937013137</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.38616039000275</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.981693867543725</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.514783171404579</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.35433733904621</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.38390368185537</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.999999201892794</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.580617467839923</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.34386095225474</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.50509588793459</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.999996849901</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.46556421218291</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.531134426499223</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.46226285086504</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.231793060787383</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.03597927297204</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.96071936571009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.03267791165417</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.547573199167333</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.03305656025564</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.06192048540258</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.12803360591386</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.99807037100566</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.186845409718314</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.90813163593991</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.28182245537654</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.7702129038428</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.86518994950102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.32476414181542</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.802106107297521</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.571527102534181</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.49600552262884</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.35295131756048</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.99999745201036</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.540247988936216</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.63522503459444</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.55472905672201</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.999999452818331</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.218358396432144</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.31333544209037</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.87661864922608</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.999999999999004</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.446525166718067</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.55017347196406</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.4432238054002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.999999939680299</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.780911634980887</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.21578700370124</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.77761027366302</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.999893634441057</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.06139624818733</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.495176849384582</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.62761564699007</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.00607349267174317</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.28499607524738</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.00377031587461785</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.57376246636938</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0508190210409344</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2.35083037168272</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.0069595085312848</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.70862025189673</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0514758363132165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4.23577711602571</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.78898292347098</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.68257130858044</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00000419261478756816</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.80619217681484</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.35939798426011</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.25298636936957</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0000526180205024929</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2.80326946409844</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.237050065295696</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.36948886290118</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0191164424267336</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.95705831356112</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.609161085241628</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.52327771236386</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.348297218604116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.000000000000000629126380620922</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-2.56621939880274</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.56621939880274</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.19868580130862</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.15910407890539</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.55647568152263</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.907817974953722</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.22996491490659</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.33625448389616</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.79618431370933</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.940632182035244</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.55185450741066</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.01436489139209</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.1180739062134</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.731393926819095</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2.21673807056087</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.230056121993863</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.6635322631156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.119425779901831</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.55112453882369</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.104330346268957</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.99791873137842</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0324649683499181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.776400172939946</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-3.19241585484302</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.63961550896313</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.998732421752496</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.710565876504601</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-3.19206810324379</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.77093635023459</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.999665868201885</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.17438086783838</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.39183853096436</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.74060026664113</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.959025277986284</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.744795928627517</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.82142347017523</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.31101532743026</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.999607948833855</v>
+      </c>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.258126784088886</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-2.93845552975862</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.42220196158085</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.999999999886944</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.10433793462621</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-3.78466668029594</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.57599081104352</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.983679172400919</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-3.06139624818733</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-5.74172499385706</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.381067502517594</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0109650893312524</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-1.86271044687871</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-4.34421267361789</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.618791779860482</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.374801006785713</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-1.83143133328074</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-4.51176007895047</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.848897412388991</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.537761998210756</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.50954174077667</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-4.1898704864464</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.17078700489306</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.819349977942451</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-0.844658177626457</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-3.4108775764292</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.72156122117629</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.998345578497642</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-0.510271709363638</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-3.07649110816638</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.05594768943911</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.999996784412112</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.0658342964353444</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-2.12752451863565</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.25919311150634</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.95078104077833</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.337985350343668</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.23954743190033</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.185456303018929</v>
+      </c>
+      <c r="E57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.52119610156746</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.767570289554535</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.80996249268946</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.584993977441104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.51827338885106</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-1.89774229305201</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.93428907075413</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.999991181840405</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.327937761686265</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2.74395344358934</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.08807792021681</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.999999983908727</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-2.28499607524738</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-4.70101175715045</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.131019606655693</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0838270198160566</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-1.08631027393876</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-3.27966908900976</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.10704854113224</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.923812494600827</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-1.0550311603408</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-3.47104684224387</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.36098452156228</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.972470555688236</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-0.733141567836723</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-3.1491572497398</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.68287411406635</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.999339996458277</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-0.0682580046865118</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-2.35702439580851</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.22050838643549</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.266128463576308</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-2.02263792754569</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.55489485469831</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.999999998251398</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.88494674434299</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.472843135871024</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.242736624557</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.273482273702029</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.45536180513212</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.902428075081891</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.81315168534613</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.702146042364389</v>
+      </c>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.452439092415715</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-2.02906313432347</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.9339413191549</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.999999006013959</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-0.39377205812161</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-2.8752742848608</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.08773016861758</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.999999854164467</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-2.35083037168272</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-4.83233259842191</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.130671855056464</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.082626236606974</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-1.1521445703741</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-3.41743581384803</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.11314667309982</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.907540599872176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-1.12086545677614</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-3.60236768351533</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.36063676996305</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.963247500912026</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-0.798975864272067</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-3.28047809101126</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.68252636246712</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.998704907490674</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-0.134092301121856</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-2.49188218133587</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.22369757909215</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.200294167140964</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-2.15749571307305</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.55808404735497</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.999999999982082</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-0.429584939210867</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-2.8763791317656</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.01720925334386</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.999999407429972</v>
+      </c>
+      <c r="E77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-1.43250765192727</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-3.99872705073001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.13371174687547</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.828778619292176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-2.2787188024646</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-4.84493820126734</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.287500596338149</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.139121894001215</v>
+      </c>
+      <c r="E79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-4.23577711602571</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-6.80199651482845</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.66955771722297</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0000135660425862882</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-3.03709131471709</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-5.3948811949311</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.679301434503081</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.00189582936842903</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-3.00581220111913</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-5.57203159992187</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.439592802316382</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.00783575443730966</v>
+      </c>
+      <c r="E82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-2.68392260861505</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-5.2501420074178</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.117703209812309</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0313941348714809</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-2.01903904546484</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-4.46583323801957</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.42775514708989</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.227729586842553</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-1.68465257720202</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-4.13144676975675</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.76214161535271</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.524566271819356</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-1.0029227127164</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-3.56914211151915</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.56329668608634</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.990116461545444</v>
+      </c>
+      <c r="E86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-1.84913386325373</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-4.41535326205647</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.717085535549016</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.445171608587131</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-3.80619217681484</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-6.37241157561759</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.2399727780121</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.000144122891837073</v>
+      </c>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-2.60750637550622</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-4.96529625572023</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.249716495292214</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0164754314317789</v>
+      </c>
+      <c r="E89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-2.57622726190826</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-5.142446660711</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.0100078631055145</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0481068883478303</v>
+      </c>
+      <c r="E90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-2.25433766940419</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-4.82055706820693</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.311881729398558</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.150492936966758</v>
+      </c>
+      <c r="E91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-1.58945410625397</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-4.03624829880871</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.857340086300757</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.622891841391042</v>
+      </c>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-1.25506763799115</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-3.70186183054589</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.19172655456358</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.901801366827766</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-0.846211150537325</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-3.52653989620706</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.83411759513241</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.998961656745319</v>
+      </c>
+      <c r="E94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-2.80326946409844</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-5.48359820976817</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.122940718428708</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0313936805392969</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-1.60458366278982</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-4.08608588952901</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.876918563949368</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.630376037550653</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-1.57330454919185</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-4.25363329486159</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.10702419647788</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.77084055639633</v>
+      </c>
+      <c r="E97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-1.25141495668778</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-3.93174370235751</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.42891378898195</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.95175727941416</v>
+      </c>
+      <c r="E98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-0.586531393537571</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-3.15275079234032</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.97968800526517</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.999979816499055</v>
+      </c>
+      <c r="E99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-0.252144925274751</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2.8183643240775</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.31407447352799</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.999999999848437</v>
+      </c>
+      <c r="E100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-1.95705831356111</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-4.63738705923085</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.723270432108617</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.422196766047147</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-0.758372512252495</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-3.23987473899168</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.72312971448669</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.999283710718796</v>
+      </c>
+      <c r="E102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-0.72709339865453</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-3.40742214432426</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.9532353470152</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.999825792267582</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-0.405203806150458</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-3.08553255182019</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.27512493951927</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.999999926058811</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.259679756999753</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-2.30653964180299</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.8258991558025</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.999999999767126</v>
+      </c>
+      <c r="E105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.594066225262573</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-1.97215317354017</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.16028562406532</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.999976198434058</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.19868580130862</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-1.28281642543057</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.68018802804781</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.936934107594442</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.22996491490658</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-1.45036383076315</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.91029366057632</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.958089940523853</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.55185450741066</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-1.12847423825907</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.23218325308039</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.787762753435646</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2.21673807056087</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.349481328241876</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.78295746936361</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.169413906569887</v>
+      </c>
+      <c r="E110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2.55112453882369</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.0150948599790559</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.11734393762643</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0529784867170335</v>
+      </c>
+      <c r="E111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.0312791135979651</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-2.45022311314122</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.51278134033715</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.353168706102038</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2.12833352063715</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.83467093284123</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.999999968462527</v>
+      </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.01805226925225</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-1.33973761096176</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.37584214946626</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.97506474096204</v>
+      </c>
+      <c r="E114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.35243873751507</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.00535114269894</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.71022861772908</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.798793421984432</v>
+      </c>
+      <c r="E115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.321889592504073</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-2.35843915316566</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.0022183381738</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.999999997213976</v>
+      </c>
+      <c r="E116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.986773155654284</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.57944624314846</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.55299255445703</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.991569334383331</v>
+      </c>
+      <c r="E117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.3211596239171</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.24505977488564</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.88737902271985</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.899239247903628</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.664883563150211</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-1.90133583565253</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.23110296195295</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.99990097909635</v>
+      </c>
+      <c r="E119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.999270031413031</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.56694936738971</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.56548943021577</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.990461571126958</v>
+      </c>
+      <c r="E120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.33438646826282</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-2.11240772429191</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.78118066081755</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.999999982269666</v>
+      </c>
+      <c r="E121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="19.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.257703065877923</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.80189004147718</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.31729617323303</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.999999999975681</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.63606155529634</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.25614055930014</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.984017448707466</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.663083634151493</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.507252771470344</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.02566103681404</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.04016657975473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.999999946507163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.397042878566793</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.22303612543701</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0171218825706</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.999999886009137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0522717225476199</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.00732138480748</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.11186482990272</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.198261295735886</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.29988601544959</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.69640860692137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99999999998991</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.311163976981325</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.30891502702248</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.93124298098513</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.999999996402471</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.31919247414592</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.74040063320918</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.37878558150103</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.97036980163829</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1.63606155529634</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.13420886648182</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.862085755889142</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.587651246454287</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.154448617791769</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.63856498501776</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.9474622206013</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.246527362241155</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.37355164176265</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.86660636624496</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.999999999876669</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.729188352776049</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.89089065122776</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.34926735677985</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.999676383727077</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.18730312083368</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.3108441903518</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.68545043201916</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.935236723479883</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.33249095758593</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.4605226452236</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.12550456039546</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.933364054459711</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-1.89376462117426</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.05369879476288</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.26616955241436</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.722690046440583</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.249549705592421</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-3.70036801139335</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.19946742257819</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.139339812688869</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-3.02059436089975</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.29927398627749</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.205431343330303</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-3.73834515161469</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.32748246495408</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.0594417701420371</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.11903487749714</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.00015133721307</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0534609111034019</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.10647326248522</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.21339508469202</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.061489408268</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.47142440001639</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.59440321655239</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.999213013148168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.89376462117426</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.95335772852937</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.16582848618084</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.676332542228027</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.103254448086154</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.40799270998689</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.20148381381458</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0111757036367688</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.17110987722539</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.14875846995185</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.471485286898125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.68844888669049</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.63141946048674</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.999999908229775</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.929600054955753</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.12999305239935</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.98919316231086</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.99910677271194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.074787891708</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.22995037019273</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.37952615360874</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.998101280696405</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.14331432676668</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.47684505862021</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.76347371215357</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.739210330465632</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.03310443386313</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.7034788347512</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.76968770247746</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.375592417100849</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.68833327784396</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.47160089574466</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.84826745143258</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.854615599497912</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.83432285103222</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.78575615297158</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.45440185503603</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.475469108976225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.94722553227766</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.789357736336667</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.68380880089199</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.447883478226611</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2.95525402944226</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.204680144146357</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.11518820303088</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0903328594538986</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.000000000000000149880108324396</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-2.6200790040038</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.6200790040038</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.79051017308811</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.11207470669015</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.69309505286637</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.681363204390935</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.88258891753749</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.853994351076838</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.61917218615182</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.505293055593526</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2.36524990807239</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.371333360541944</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.10183317668672</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.162736463857666</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2.82336467613001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.20328567212621</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.44344368013382</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.023236580303001</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.96855251288227</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0659676331040053</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.87113739266053</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0401915338057539</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.110209892903551</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-3.73036927829044</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.50994949248334</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.454981048922724</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-4.4048987659085</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.49493666806305</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.999999997681419</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.308991475734458</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-3.84190528401884</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.22392233254993</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.999999999957688</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.196088794489019</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-3.81624817987591</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.42407059089787</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.811939702675581</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-3.13797801431019</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.76185741966136</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.999992782263085</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-2.14331432676668</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-5.67622813505107</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.3895994815177</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.705570480138869</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.352804153678575</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-4.10002512045679</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.39441681309965</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.99999999987553</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-0.260725409229189</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-3.88088479461608</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.3594339761577</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.999999999997729</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.221935581305705</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-3.39822380408119</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.8420949666926</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.680050349363333</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-2.85286345892105</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.21296415764772</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.999996982171674</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.825238186115584</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-2.92198278066264</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.5724591528938</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.999982262473534</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-0.344771156019173</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-3.50470532960779</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.81516301756945</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.999999998939685</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-0.198781582830906</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-2.81886058683471</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.4212974211729</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.999999999994861</v>
+      </c>
+      <c r="E57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-0.0858789015854673</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-2.8224621701998</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.65070436702886</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.922149595579132</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2.23778457800949</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.08208376916775</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.99943656903246</v>
+      </c>
+      <c r="E60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-2.03310443386313</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-4.65318343786694</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.586974570140674</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.306274706990186</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-0.242594260775023</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-3.14517914055328</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.65999061900324</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.999999999978291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-0.150515516325638</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-2.88709878493997</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.58606775228869</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.332145474209256</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-2.40443779440507</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.06872874282359</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.999999995085427</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.790260242266884</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.82981876173692</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.41033924627069</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.999177798646588</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.935448079019136</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.96713680075913</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.8380329587974</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.998280268238446</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.145989573188266</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-2.91360353416684</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.20558268054337</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.258892254433705</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-2.90104191915491</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.41882642802233</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.999999999983849</v>
+      </c>
+      <c r="E69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.2669207515983</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-2.26599305668608</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.79983455988269</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.994705188991044</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-1.68833327784396</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-4.74792638519906</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.37125982951115</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.82304822496041</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.102176895244149</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-3.20256136665658</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.40691515714488</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.194255639693535</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-2.96567853389509</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.35418981328215</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.676916630228429</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-2.48301754336019</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.83685080381705</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.999987609599445</v>
+      </c>
+      <c r="E74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.13503139828606</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.92456170906905</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.19462450564116</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.992569893366621</v>
+      </c>
+      <c r="E75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.28021923503831</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-2.02451902686242</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.58495749693904</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.988705469664884</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.112902681245439</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-2.50717632275837</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.73298168524924</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.12093117841004</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.93866192894507</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.18052428576514</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.993435163003691</v>
+      </c>
+      <c r="E79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-1.83432285103222</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-4.3324701622177</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.663824460153256</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.394989008568474</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-0.043812677944117</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-2.83682628075364</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.74920092486541</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.0482660665052683</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-2.57181293749854</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.66834507050907</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.530927057040162</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-2.08915194696364</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.15100606104397</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.999994023965283</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.989041825097791</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-1.50910548608769</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.48718913628327</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.986144107541592</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.13422966185004</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-1.65878394095949</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.92724326465957</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.982503162015411</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.0080284971646</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.15190567642402</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.16796267075322</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.99846240015972</v>
+      </c>
+      <c r="E94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-1.94722553227766</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-4.56730453628147</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.672853471726141</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.375021686735952</v>
+      </c>
+      <c r="E95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-0.156715359189556</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-3.05930023896782</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.7458695205887</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-0.0646366147401707</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2.8012198833545</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.67194665387416</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.418024375794723</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.31855889281961</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.15460764440905</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.999999872555547</v>
+      </c>
+      <c r="E98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.876139143852352</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.74393986015145</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.49621814785616</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.997439682319106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.0213269806046</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.88125789917366</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.92391186038286</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.995636542879494</v>
+      </c>
+      <c r="E100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-2.95525402944226</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-6.01484713679737</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.104339077912842</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0686739318745377</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-1.16474385635416</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-4.46948211825489</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.13999440554658</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.995562310513898</v>
+      </c>
+      <c r="E102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-1.07266511190477</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-4.23259928549339</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.08726906168385</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.996997481199681</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-0.590004121369876</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-3.7499382949585</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.56993005221874</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.999997995175534</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-0.131889353312248</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-3.19148246066735</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.92770375404286</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.0132984834400034</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-3.29143977846073</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.31803674534074</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.79051017308811</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-1.00250342972142</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.58352377589763</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.622166735968442</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.88258891753749</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.737490086466312</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.5026679215413</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.43137286399656</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2.36524990807239</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.254829095931418</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.98532891207619</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.119263722174991</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2.82336467613001</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.325217364944535</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.32151198731549</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0134017784663416</v>
+      </c>
+      <c r="E110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2.96855251288227</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.175538910072739</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.76156611569179</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0269959147133552</v>
+      </c>
+      <c r="E111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.0920787444493854</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-2.81050613532888</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.99466362422765</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.574739734984279</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2.32784514479398</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.47732461476254</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.999995600259004</v>
+      </c>
+      <c r="E113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.03285450304191</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-1.76015909976762</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.82586810585143</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.992798913536651</v>
+      </c>
+      <c r="E114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.17804233979416</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.88155076756095</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.23763544714926</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.989342552128175</v>
+      </c>
+      <c r="E115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.482660990534894</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-2.25392227807944</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.21924425914922</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.999999073513897</v>
+      </c>
+      <c r="E116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.940775758592522</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.67930324541128</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.56085476259633</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.994636216938213</v>
+      </c>
+      <c r="E117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.08596359534477</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.81662128443349</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.98854847512303</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.991924169995134</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.458114768057628</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-2.16196423594618</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.07819377206143</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.999999177038386</v>
+      </c>
+      <c r="E119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.60330260480988</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-2.29928227496838</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.50588748458814</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.999991649671509</v>
+      </c>
+      <c r="E120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.145187836752251</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-2.64782576605728</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.93820143956178</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>